--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA9727-D826-45D8-B98B-56CD3D53C861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393E98E-99BB-465C-8AA8-8EE8FE076D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha de pagamento" sheetId="3" r:id="rId2"/>
+    <sheet name="Folha simplificada" sheetId="3" r:id="rId2"/>
     <sheet name="controledeestoquelucro" sheetId="4" r:id="rId3"/>
+    <sheet name="Recibo" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -96,16 +97,112 @@
   </si>
   <si>
     <t>Dólar</t>
+  </si>
+  <si>
+    <t>Tiago Souza</t>
+  </si>
+  <si>
+    <t>Rafaela Cristina</t>
+  </si>
+  <si>
+    <t>Maria de Lourdes</t>
+  </si>
+  <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
+    <t>Caderno</t>
+  </si>
+  <si>
+    <t>Caneta</t>
+  </si>
+  <si>
+    <t>Borracha</t>
+  </si>
+  <si>
+    <t>Apostilas</t>
+  </si>
+  <si>
+    <t>Pastas</t>
+  </si>
+  <si>
+    <t>Sub-Total R$</t>
+  </si>
+  <si>
+    <t>Vl. Venda R$</t>
+  </si>
+  <si>
+    <t>Vl. Custo R$</t>
+  </si>
+  <si>
+    <t>Vl. Custo U$</t>
+  </si>
+  <si>
+    <t>Vl. Venda U$</t>
+  </si>
+  <si>
+    <t>Sub-Total U$</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Valor unit</t>
+  </si>
+  <si>
+    <t>Valor total</t>
+  </si>
+  <si>
+    <t>Mais Caro</t>
+  </si>
+  <si>
+    <t>Mais barato</t>
+  </si>
+  <si>
+    <t>Biscoitos</t>
+  </si>
+  <si>
+    <t>Macarrão</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>Sabonete</t>
+  </si>
+  <si>
+    <t>Sub-Total</t>
+  </si>
+  <si>
+    <t>Vl. desconto</t>
+  </si>
+  <si>
+    <t>Recibo de compra</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Gráfico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +225,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +271,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -178,11 +301,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -195,20 +476,102 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,7 +886,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,12 +898,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -617,11 +980,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -641,149 +1004,782 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C4*D4</f>
+        <v>300</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4*E4</f>
+        <v>120</v>
+      </c>
+      <c r="I4" s="1">
+        <f>C4*F4</f>
+        <v>105.00000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f>C4-(G4+H4+I4)</f>
+        <v>975</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G8" si="0">C5*D5</f>
+        <v>320</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H8" si="1">C5*E5</f>
+        <v>128</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I8" si="2">C5*F5</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J8" si="3">C5-(G5+H5+I5)</f>
+        <v>1040</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>126.00000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>154.00000000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>1430</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>126.00000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA9520C-119D-42FB-890F-F49189793DBC}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="12">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>D8*C$3+D8</f>
+        <v>2.99</v>
+      </c>
+      <c r="F8" s="1">
+        <f>E8*C8</f>
+        <v>14.950000000000001</v>
+      </c>
+      <c r="G8" s="14">
+        <f>D8/C$4</f>
+        <v>0.23853211009174313</v>
+      </c>
+      <c r="H8" s="14">
+        <f>G8*C$3+G8</f>
+        <v>0.54862385321100926</v>
+      </c>
+      <c r="I8" s="14">
+        <f>H8*C8</f>
+        <v>2.7431192660550465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E12" si="0">D9*C$3+D9</f>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F12" si="1">E9*C9</f>
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" ref="G9:G12" si="2">D9/C$4</f>
+        <v>9.7247706422018354E-2</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" ref="H9:H12" si="3">G9*C$3+G9</f>
+        <v>0.22366972477064223</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" ref="I9:I12" si="4">H9*C9</f>
+        <v>0.44733944954128446</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>4.2201834862385323E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="3"/>
+        <v>9.7064220183486247E-2</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="4"/>
+        <v>9.7064220183486247E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>517.5</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>2.7522935779816513</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="3"/>
+        <v>6.330275229357798</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="4"/>
+        <v>94.954128440366972</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="13">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3699999999999992</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>87.399999999999977</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.34862385321100914</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="3"/>
+        <v>0.80183486238532109</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="4"/>
+        <v>16.036697247706421</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26CD517-567E-4874-9E0F-E652E52C3A90}">
+  <dimension ref="B1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="22">
+        <v>45053</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39">
+        <v>10.3</v>
+      </c>
+      <c r="E7" s="41">
+        <f>C7*D7</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="39">
+        <v>5.3</v>
+      </c>
+      <c r="E8" s="41">
+        <f t="shared" ref="E8:E11" si="0">C8*D8</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E9" s="41">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1.56</v>
+      </c>
+      <c r="E10" s="41">
+        <f t="shared" si="0"/>
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="38">
+        <v>15</v>
+      </c>
+      <c r="D11" s="40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="47">
+        <f>SUM(E7:E11)</f>
+        <v>155.18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="41">
+        <f>E12*C5</f>
+        <v>23.277000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="43">
+        <f>E12-E13</f>
+        <v>131.90300000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B18:E36"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393E98E-99BB-465C-8AA8-8EE8FE076D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCF6987-B1F9-4768-9E50-E3285DE2F71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque" sheetId="1" r:id="rId1"/>
     <sheet name="Folha simplificada" sheetId="3" r:id="rId2"/>
     <sheet name="controledeestoquelucro" sheetId="4" r:id="rId3"/>
     <sheet name="Recibo" sheetId="5" r:id="rId4"/>
+    <sheet name="Empresa Nacional" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -190,6 +191,42 @@
   </si>
   <si>
     <t>Gráfico</t>
+  </si>
+  <si>
+    <t>Empresa Nacional S/A</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Ferveriro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Parafusos</t>
+  </si>
+  <si>
+    <t>Pregos</t>
+  </si>
+  <si>
+    <t>Tintas</t>
+  </si>
+  <si>
+    <t>Martelo</t>
+  </si>
+  <si>
+    <t>Marreta</t>
   </si>
 </sst>
 </file>
@@ -199,10 +236,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +282,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +322,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -490,84 +541,84 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,6 +626,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -898,12 +954,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -980,11 +1036,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -1018,17 +1074,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1252,16 +1308,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -1472,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26CD517-567E-4874-9E0F-E652E52C3A90}">
   <dimension ref="B1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,290 +1542,293 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="22">
-        <v>45053</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="40">
+        <f ca="1">NOW()</f>
+        <v>45056.827513194447</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="44">
         <v>0.15</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="22">
         <v>10.3</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="24">
         <f>C7*D7</f>
         <v>51.5</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="22">
         <v>5.3</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="24">
         <f t="shared" ref="E8:E11" si="0">C8*D8</f>
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="22">
         <v>1.56</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>4.68</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="21">
         <v>15</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="29">
         <f>SUM(E7:E11)</f>
         <v>155.18</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="24">
         <f>E12*C5</f>
         <v>23.277000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="24">
+        <f>MAX(E7:E11)</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="24">
+        <f>MIN(E7:E11)</f>
+        <v>4.68</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="25">
         <f>E12-E13</f>
         <v>131.90300000000002</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1782,4 +1841,392 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3273BA75-4C63-4498-94F5-78CB962C37D7}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="1">
+        <f>MAX(C4:E4)</f>
+        <v>15000</v>
+      </c>
+      <c r="G4" s="1">
+        <f>MIN(C4:E4)</f>
+        <v>8000</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE(C4:E4)</f>
+        <v>11000</v>
+      </c>
+      <c r="I4" s="5">
+        <f>SUM(C4:E4)</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F8" si="0">MAX(C5:E5)</f>
+        <v>12000</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G8" si="1">MIN(C5:E5)</f>
+        <v>8000</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H8" si="2">AVERAGE(C5:E5)</f>
+        <v>9666.6666666666661</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I8" si="3">SUM(C5:E5)</f>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>9500</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>5333.333333333333</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7800</v>
+      </c>
+      <c r="F10" s="1">
+        <f>MAX(C10:E10)</f>
+        <v>10000</v>
+      </c>
+      <c r="G10" s="1">
+        <f>MIN(C10:E10)</f>
+        <v>7800</v>
+      </c>
+      <c r="H10" s="1">
+        <f>AVERAGE(C10:E10)</f>
+        <v>8933.3333333333339</v>
+      </c>
+      <c r="I10" s="5">
+        <f>SUM(C10:E10)</f>
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9800</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F14" si="4">MAX(C11:E11)</f>
+        <v>15000</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G14" si="5">MIN(C11:E11)</f>
+        <v>5000</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H14" si="6">AVERAGE(C11:E11)</f>
+        <v>9933.3333333333339</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11:I14" si="7">SUM(C11:E11)</f>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="4"/>
+        <v>45000</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="6"/>
+        <v>17833.333333333332</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="7"/>
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1">
+        <v>56000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>52000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="4"/>
+        <v>56000</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="6"/>
+        <v>37500</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="7"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="6"/>
+        <v>7166.666666666667</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="7"/>
+        <v>21500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCF6987-B1F9-4768-9E50-E3285DE2F71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E937B1-9584-4AD7-BE79-2F43407CBB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Controle de estoque" sheetId="1" r:id="rId1"/>
+    <sheet name="Controle de estoque 1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha simplificada" sheetId="3" r:id="rId2"/>
     <sheet name="controledeestoquelucro" sheetId="4" r:id="rId3"/>
     <sheet name="Recibo" sheetId="5" r:id="rId4"/>
     <sheet name="Empresa Nacional" sheetId="6" r:id="rId5"/>
+    <sheet name="Controle de estoque 2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -227,17 +228,34 @@
   </si>
   <si>
     <t>Marreta</t>
+  </si>
+  <si>
+    <t>Vl. Custo</t>
+  </si>
+  <si>
+    <t>Vl. Venda</t>
+  </si>
+  <si>
+    <t>Data Validade</t>
+  </si>
+  <si>
+    <t>Dias p/ vencimento</t>
+  </si>
+  <si>
+    <t>Biscoito</t>
+  </si>
+  <si>
+    <t>Café</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -514,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,6 +585,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,12 +616,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,7 +631,30 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,12 +990,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1036,11 +1072,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -1074,17 +1110,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1308,16 +1344,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -1529,7 +1565,7 @@
   <dimension ref="B1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,43 +1578,43 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="40">
-        <f ca="1">NOW()</f>
-        <v>45056.827513194447</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="54">
+        <f ca="1">TODAY()</f>
+        <v>45057</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>0.15</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
@@ -1715,120 +1751,120 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1847,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3273BA75-4C63-4498-94F5-78CB962C37D7}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,40 +1896,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2048,28 +2084,28 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2229,4 +2265,173 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC143A7C-3DEC-4C8A-9A7E-F96ABC47EB7D}">
+  <dimension ref="D4:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6+F6*I$4</f>
+        <v>10.5</v>
+      </c>
+      <c r="H6" s="46">
+        <v>44540</v>
+      </c>
+      <c r="I6" s="53">
+        <f ca="1">TODAY()-H6</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G10" si="0">F7+F7*I$4</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="H7" s="46">
+        <v>44849</v>
+      </c>
+      <c r="I7" s="53">
+        <f t="shared" ref="I7:I10" ca="1" si="1">TODAY()-H7</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="H8" s="46">
+        <v>44959</v>
+      </c>
+      <c r="I8" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.69</v>
+      </c>
+      <c r="H9" s="46">
+        <v>44540</v>
+      </c>
+      <c r="I9" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>28.349999999999998</v>
+      </c>
+      <c r="H10" s="46">
+        <v>45056</v>
+      </c>
+      <c r="I10" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E937B1-9584-4AD7-BE79-2F43407CBB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0614E46F-3E9E-440E-9A19-551036B4F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Recibo" sheetId="5" r:id="rId4"/>
     <sheet name="Empresa Nacional" sheetId="6" r:id="rId5"/>
     <sheet name="Controle de estoque 2" sheetId="7" r:id="rId6"/>
+    <sheet name="Boletim Escolar" sheetId="9" r:id="rId7"/>
+    <sheet name="Financeiro" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -191,9 +193,6 @@
     <t>Pedro</t>
   </si>
   <si>
-    <t>Gráfico</t>
-  </si>
-  <si>
     <t>Empresa Nacional S/A</t>
   </si>
   <si>
@@ -246,6 +245,87 @@
   </si>
   <si>
     <t>Café</t>
+  </si>
+  <si>
+    <t>Boletim</t>
+  </si>
+  <si>
+    <t>1º bimestre</t>
+  </si>
+  <si>
+    <t>2º bimestre</t>
+  </si>
+  <si>
+    <t>3º bimestre</t>
+  </si>
+  <si>
+    <t>4º bimestre</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Química</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Português</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Disciplinas</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Receitas</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Despesas</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Diversos</t>
   </si>
 </sst>
 </file>
@@ -257,7 +337,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +388,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -347,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -527,12 +615,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,6 +685,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,9 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,6 +729,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,7 +752,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,26 +761,109 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -676,6 +879,2644 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Produtos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Recibo!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantidade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Recibo!$B$7:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Biscoitos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Macarrão</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Milho</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sabonete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Recibo!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E83D-4FEA-9E09-F228BA2300CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boletim Escolar </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1º bimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Física</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Química</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Biologia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Português</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boletim Escolar'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49EF-43F5-8B78-C112CFAFCA7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2º bimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Física</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Química</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Biologia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Português</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boletim Escolar'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49EF-43F5-8B78-C112CFAFCA7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3º bimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Física</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Química</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Biologia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Português</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boletim Escolar'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49EF-43F5-8B78-C112CFAFCA7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4º bimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Boletim Escolar'!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Física</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Química</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Biologia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Português</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boletim Escolar'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-49EF-43F5-8B78-C112CFAFCA7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="856719839"/>
+        <c:axId val="856724639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="856719839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856724639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="856724639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="856719839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="345">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115553AE-ED84-6D43-0445-7C8EFC80C714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7544C2DC-9FE8-1181-CCA7-786C1E889A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,12 +3831,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1072,11 +3913,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -1110,17 +3951,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1328,7 +4169,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,16 +4185,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -1565,7 +4406,7 @@
   <dimension ref="B1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,43 +4419,43 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+        <v>45061</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="57">
         <v>0.15</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
@@ -1751,124 +4592,121 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+    </row>
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+    </row>
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+    </row>
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+    </row>
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B18:E36"/>
+  <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -1876,6 +4714,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1896,38 +4735,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>9</v>
@@ -1935,7 +4774,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>15000</v>
@@ -1965,7 +4804,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>12000</v>
@@ -1995,7 +4834,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>50000</v>
@@ -2025,7 +4864,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>12000</v>
@@ -2055,7 +4894,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>10000</v>
@@ -2088,22 +4927,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="H9" s="30" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>60</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>9</v>
@@ -2111,7 +4950,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1">
         <v>10000</v>
@@ -2141,7 +4980,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>15000</v>
@@ -2171,7 +5010,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1">
         <v>45000</v>
@@ -2201,7 +5040,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1">
         <v>56000</v>
@@ -2231,7 +5070,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1">
         <v>12000</v>
@@ -2269,10 +5108,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC143A7C-3DEC-4C8A-9A7E-F96ABC47EB7D}">
-  <dimension ref="D4:I10"/>
+  <dimension ref="D4:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,46 +5123,50 @@
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="47" t="s">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="51" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="50" t="s">
+      <c r="J4" s="70"/>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="I5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>3.5</v>
@@ -2332,17 +5175,21 @@
         <f>F6+F6*I$4</f>
         <v>10.5</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="31">
         <v>44540</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="6">
         <f ca="1">TODAY()-H6</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(E6&lt;10,"Comprar","OK")</f>
+        <v>Comprar</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="6">
         <v>10</v>
@@ -2354,20 +5201,24 @@
         <f t="shared" ref="G7:G10" si="0">F7+F7*I$4</f>
         <v>3.9000000000000004</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="31">
         <v>44849</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="6">
         <f t="shared" ref="I7:I10" ca="1" si="1">TODAY()-H7</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J10" si="2">IF(E7&lt;10,"Comprar","OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>0.35</v>
@@ -2376,15 +5227,19 @@
         <f t="shared" si="0"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="31">
         <v>44959</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
@@ -2398,17 +5253,21 @@
         <f t="shared" si="0"/>
         <v>3.69</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="31">
         <v>44540</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>Comprar</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6">
         <v>4</v>
@@ -2420,18 +5279,557 @@
         <f t="shared" si="0"/>
         <v>28.349999999999998</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="31">
         <v>45056</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>Comprar</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:G4"/>
   </mergeCells>
+  <conditionalFormatting sqref="J6:J10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Comprar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C20EE-9DF0-4D5B-9897-2B614A447014}">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(C4:F4)</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>IF(G4&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G8" si="0">AVERAGE(C5:F5)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" ref="H5:H8" si="1">IF(G5&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:H8">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Aprovado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Reprovado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695816E7-5C96-49B8-B869-E65D96DDAB7E}">
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>150</v>
+      </c>
+      <c r="H8" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>200</v>
+      </c>
+      <c r="H9" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1">
+        <v>600</v>
+      </c>
+      <c r="D10" s="1">
+        <v>550</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="1">
+        <v>550</v>
+      </c>
+      <c r="H10" s="37">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1960</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="38">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="38">
+        <v>1560</v>
+      </c>
+      <c r="H12" s="39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="41">
+        <f>SUM(C7:C12)</f>
+        <v>9450</v>
+      </c>
+      <c r="D14" s="41">
+        <f t="shared" ref="D14:H14" si="0">SUM(D7:D12)</f>
+        <v>5850</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="0"/>
+        <v>5350</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="0"/>
+        <v>5920</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="0"/>
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C4-C14</f>
+        <v>550</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15:H15" si="1">D4-D14</f>
+        <v>9150</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>2650</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>2600</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>9080</v>
+      </c>
+      <c r="H15" s="37">
+        <f t="shared" si="1"/>
+        <v>-2950</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="43" t="str">
+        <f t="shared" ref="C16:H16" si="2">IF(C15&lt;1000,"Prejuízo Total",IF(C15&lt;=3000,"Lucro médio","Lucro Total"))</f>
+        <v>Prejuízo Total</v>
+      </c>
+      <c r="D16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Lucro Total</v>
+      </c>
+      <c r="E16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Lucro médio</v>
+      </c>
+      <c r="F16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Lucro médio</v>
+      </c>
+      <c r="G16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Lucro Total</v>
+      </c>
+      <c r="H16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Prejuízo Total</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:H6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C16:H16">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Prejuízo Total"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Lucro médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Lucro Total"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0614E46F-3E9E-440E-9A19-551036B4F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E11B6-4E22-4949-8560-CC9C5CBB4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,11 @@
     <sheet name="Controle de estoque 2" sheetId="7" r:id="rId6"/>
     <sheet name="Boletim Escolar" sheetId="9" r:id="rId7"/>
     <sheet name="Financeiro" sheetId="10" r:id="rId8"/>
+    <sheet name="Relatório de vendas" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Relatório de vendas'!$B$6:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -326,6 +330,27 @@
   </si>
   <si>
     <t>Diversos</t>
+  </si>
+  <si>
+    <t>Relatório de vendas</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Prato</t>
+  </si>
+  <si>
+    <t>Caneca</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Rafaela</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
@@ -337,7 +362,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +421,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +463,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +742,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,49 +830,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -845,6 +862,18 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -860,6 +889,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1050,6 +1099,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-690D-4A7A-9125-2E00CB9DA8D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1093,6 +1147,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-690D-4A7A-9125-2E00CB9DA8D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1136,6 +1195,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-690D-4A7A-9125-2E00CB9DA8D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1179,6 +1243,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-690D-4A7A-9125-2E00CB9DA8D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1222,6 +1291,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-690D-4A7A-9125-2E00CB9DA8D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3831,12 +3905,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3913,11 +3987,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -3951,17 +4025,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -4185,16 +4259,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4419,43 +4493,43 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="61">
         <f ca="1">TODAY()</f>
-        <v>45061</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+        <v>45062</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="65">
         <v>0.15</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
@@ -4592,118 +4666,118 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4735,16 +4809,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -5110,7 +5184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC143A7C-3DEC-4C8A-9A7E-F96ABC47EB7D}">
   <dimension ref="D4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -5124,19 +5198,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="34">
         <v>2</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D5" s="32" t="s">
@@ -5157,7 +5231,7 @@
       <c r="I5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="45" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5180,7 +5254,7 @@
       </c>
       <c r="I6" s="6">
         <f ca="1">TODAY()-H6</f>
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J6" t="str">
         <f>IF(E6&lt;10,"Comprar","OK")</f>
@@ -5206,7 +5280,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I10" ca="1" si="1">TODAY()-H7</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J10" si="2">IF(E7&lt;10,"Comprar","OK")</f>
@@ -5232,7 +5306,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
@@ -5258,7 +5332,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
@@ -5284,7 +5358,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
@@ -5296,11 +5370,11 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Comprar"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5311,7 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C20EE-9DF0-4D5B-9897-2B614A447014}">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -5324,15 +5398,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -5487,11 +5561,11 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H8">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Reprovado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Aprovado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Reprovado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5514,18 +5588,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="71" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -5548,7 +5622,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="63"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="1">
         <v>10000</v>
       </c>
@@ -5570,15 +5644,15 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -5820,16 +5894,209 @@
     <mergeCell ref="B6:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:H16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Prejuízo Total"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Lucro Total"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Lucro médio"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Lucro Total"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Prejuízo Total"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1CCE31-13E3-49E3-B0E4-6065A92FC6F3}">
+  <dimension ref="B3:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="51">
+        <f>AVERAGE(E7:E14)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="51">
+        <f>SUM(E7:E14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="51">
+        <f>SUBTOTAL(1,E7:E14)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="51">
+        <f>SUBTOTAL(9,E7:E14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="48">
+        <v>45204</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="48">
+        <v>45204</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="48">
+        <v>45204</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="48">
+        <v>45205</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="48">
+        <v>45205</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="48">
+        <v>45208</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="48">
+        <v>45208</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="48">
+        <v>45208</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:E14" xr:uid="{7C1CCE31-13E3-49E3-B0E4-6065A92FC6F3}"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E11B6-4E22-4949-8560-CC9C5CBB4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E2095-8234-4AA7-865E-FC3A0336DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>QTD</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -664,12 +670,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +773,14 @@
     <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3905,12 +3928,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3987,11 +4010,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -4025,17 +4048,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -4259,16 +4282,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4493,43 +4516,43 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="67">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+        <v>45068</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="71">
         <v>0.15</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
@@ -4809,16 +4832,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -5198,12 +5221,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
@@ -5254,7 +5277,7 @@
       </c>
       <c r="I6" s="6">
         <f ca="1">TODAY()-H6</f>
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="J6" t="str">
         <f>IF(E6&lt;10,"Comprar","OK")</f>
@@ -5280,7 +5303,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I10" ca="1" si="1">TODAY()-H7</f>
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J10" si="2">IF(E7&lt;10,"Comprar","OK")</f>
@@ -5306,7 +5329,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
@@ -5332,7 +5355,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
@@ -5358,7 +5381,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
@@ -5385,7 +5408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C20EE-9DF0-4D5B-9897-2B614A447014}">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -5398,15 +5421,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -5588,18 +5611,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -5622,7 +5645,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="1">
         <v>10000</v>
       </c>
@@ -5644,15 +5667,15 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -5910,10 +5933,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1CCE31-13E3-49E3-B0E4-6065A92FC6F3}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5923,15 +5946,15 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="50" t="s">
         <v>59</v>
       </c>
@@ -5947,7 +5970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="50" t="s">
         <v>104</v>
       </c>
@@ -5963,7 +5986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49" t="s">
         <v>38</v>
       </c>
@@ -5976,8 +5999,17 @@
       <c r="E6" s="49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="48">
         <v>45204</v>
       </c>
@@ -5990,8 +6022,19 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="54">
+        <f>COUNTIF(D7:D14,"Tiago")</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="55">
+        <f>SUMIF(D7:D14,"Tiago",E7:E14)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="48">
         <v>45204</v>
       </c>
@@ -6004,8 +6047,19 @@
       <c r="E8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="6">
+        <f>COUNTIF(D7:D14,"Rafaela")</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="56">
+        <f>SUMIF(D7:D14,"Rafaela",E7:E14)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="48">
         <v>45204</v>
       </c>
@@ -6018,8 +6072,19 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="43">
+        <f>COUNTIF(D7:D14,"Pedro")</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="57">
+        <f>SUMIF(D7:D14,"Pedro",E7:E14)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="48">
         <v>45205</v>
       </c>
@@ -6033,7 +6098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="48">
         <v>45205</v>
       </c>
@@ -6047,7 +6112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="48">
         <v>45208</v>
       </c>
@@ -6061,7 +6126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="48">
         <v>45208</v>
       </c>
@@ -6075,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="48">
         <v>45208</v>
       </c>
@@ -6089,7 +6154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="47"/>
     </row>
   </sheetData>

--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E2095-8234-4AA7-865E-FC3A0336DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7C20A-B999-42C8-9B18-D988F3A2D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque 1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Boletim Escolar" sheetId="9" r:id="rId7"/>
     <sheet name="Financeiro" sheetId="10" r:id="rId8"/>
     <sheet name="Relatório de vendas" sheetId="11" r:id="rId9"/>
+    <sheet name="procv" sheetId="12" r:id="rId10"/>
+    <sheet name="ex-procv" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Relatório de vendas'!$B$6:$E$14</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -357,13 +359,71 @@
   </si>
   <si>
     <t>QTD</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Cod Pesquisa</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Consultor</t>
+  </si>
+  <si>
+    <t>Recepcionista</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Gerenciamento Comissões</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Comissão</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Acima de R$ 25000,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
@@ -680,11 +740,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,8 +914,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -4029,6 +4117,275 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6F7FBC-6754-469B-B55A-519A0802C278}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="87" t="str">
+        <f>VLOOKUP(C8,B3:D6,2,FALSE)</f>
+        <v>Pedro</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="88" t="str">
+        <f>VLOOKUP(C8,B3:D6,3,FALSE)</f>
+        <v>Consultor</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34453382-10D1-4AB8-BDFD-360A898D02DF}">
+  <dimension ref="B2:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="90">
+        <v>30000</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>IF(D4&lt;=J$4,K$4,IF(D4&lt;=J$5,K$5,IF(D4&lt;=J$6,K$6,IF(D4&lt;=J$7,K$7,IF(D4&lt;=J$8,K$8,K$9)))))</f>
+        <v>F</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="J4" s="92">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2300</v>
+      </c>
+      <c r="D5" s="90">
+        <v>13450</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>IF(D5&lt;=J$4,K$4,IF(D5&lt;=J$5,K$5,IF(D5&lt;=J$6,K$6,IF(D5&lt;=J$7,K$7,IF(D5&lt;=J$8,K$8,K$9)))))</f>
+        <v>C</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="J5" s="92">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="90">
+        <v>22360</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>IF(D6&lt;=J$4,K$4,IF(D6&lt;=J$5,K$5,IF(D6&lt;=J$6,K$6,IF(D6&lt;=J$7,K$7,IF(D6&lt;=J$8,K$8,K$9)))))</f>
+        <v>E</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="J6" s="92">
+        <v>15000</v>
+      </c>
+      <c r="K6" s="87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="90">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>IF(D7&lt;=J$4,K$4,IF(D7&lt;=J$5,K$5,IF(D7&lt;=J$6,K$6,IF(D7&lt;=J$7,K$7,IF(D7&lt;=J$8,K$8,K$9)))))</f>
+        <v>C</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="92">
+        <v>20000</v>
+      </c>
+      <c r="K7" s="87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="92">
+        <v>25000</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAF51C1-5D21-4707-A555-3AD6B7FBB0C3}">
   <dimension ref="B2:J8"/>
@@ -4529,7 +4886,7 @@
       </c>
       <c r="C3" s="67">
         <f ca="1">TODAY()</f>
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="68"/>
@@ -5277,7 +5634,7 @@
       </c>
       <c r="I6" s="6">
         <f ca="1">TODAY()-H6</f>
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J6" t="str">
         <f>IF(E6&lt;10,"Comprar","OK")</f>
@@ -5303,7 +5660,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I10" ca="1" si="1">TODAY()-H7</f>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J10" si="2">IF(E7&lt;10,"Comprar","OK")</f>
@@ -5329,7 +5686,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
@@ -5355,7 +5712,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
@@ -5381,7 +5738,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
@@ -5935,8 +6292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1CCE31-13E3-49E3-B0E4-6065A92FC6F3}">
   <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/curso_excel.xlsx
+++ b/curso_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\programacao\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7C20A-B999-42C8-9B18-D988F3A2D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5036F55-813F-4E48-9602-0A2FD927D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{04619F30-6160-4E7C-8B00-7138000C4EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de estoque 1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="Boletim Escolar" sheetId="9" r:id="rId7"/>
     <sheet name="Financeiro" sheetId="10" r:id="rId8"/>
     <sheet name="Relatório de vendas" sheetId="11" r:id="rId9"/>
-    <sheet name="procv" sheetId="12" r:id="rId10"/>
-    <sheet name="ex-procv" sheetId="13" r:id="rId11"/>
+    <sheet name="GerenciamentoComissoes" sheetId="13" r:id="rId10"/>
+    <sheet name="PROCV" sheetId="12" r:id="rId11"/>
+    <sheet name="PROCH" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Relatório de vendas'!$B$6:$E$14</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t>Controle de estoque</t>
   </si>
@@ -416,6 +417,39 @@
   </si>
   <si>
     <t>Acima de R$ 25000,00</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>Terça</t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Pesquisa</t>
+  </si>
+  <si>
+    <t>domingo</t>
   </si>
 </sst>
 </file>
@@ -745,7 +779,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,6 +876,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,30 +968,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4016,12 +4068,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4098,11 +4150,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="5">
         <f>SUM(E4:E7)</f>
         <v>148.13999999999999</v>
@@ -4118,11 +4170,252 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34453382-10D1-4AB8-BDFD-360A898D02DF}">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="65">
+        <v>9000</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>IF(D4&lt;=J$4,K$4,IF(D4&lt;=J$5,K$5,IF(D4&lt;=J$6,K$6,IF(D4&lt;=J$7,K$7,IF(D4&lt;=J$8,K$8,K$9)))))</f>
+        <v>B</v>
+      </c>
+      <c r="F4" s="65">
+        <f>HLOOKUP(E4,C$9:H$10,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="G4" s="65">
+        <f>C4+F4</f>
+        <v>1900</v>
+      </c>
+      <c r="J4" s="67">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2300</v>
+      </c>
+      <c r="D5" s="65">
+        <v>21000</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>IF(D5&lt;=J$4,K$4,IF(D5&lt;=J$5,K$5,IF(D5&lt;=J$6,K$6,IF(D5&lt;=J$7,K$7,IF(D5&lt;=J$8,K$8,K$9)))))</f>
+        <v>E</v>
+      </c>
+      <c r="F5" s="65">
+        <f t="shared" ref="F5:F7" si="0">HLOOKUP(E5,C$9:H$10,2,FALSE)</f>
+        <v>160</v>
+      </c>
+      <c r="G5" s="65">
+        <f t="shared" ref="G5:G7" si="1">C5+F5</f>
+        <v>2460</v>
+      </c>
+      <c r="J5" s="67">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="65">
+        <v>22360</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>IF(D6&lt;=J$4,K$4,IF(D6&lt;=J$5,K$5,IF(D6&lt;=J$6,K$6,IF(D6&lt;=J$7,K$7,IF(D6&lt;=J$8,K$8,K$9)))))</f>
+        <v>E</v>
+      </c>
+      <c r="F6" s="65">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G6" s="65">
+        <f t="shared" si="1"/>
+        <v>1960</v>
+      </c>
+      <c r="J6" s="67">
+        <v>15000</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="65">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>IF(D7&lt;=J$4,K$4,IF(D7&lt;=J$5,K$5,IF(D7&lt;=J$6,K$6,IF(D7&lt;=J$7,K$7,IF(D7&lt;=J$8,K$8,K$9)))))</f>
+        <v>F</v>
+      </c>
+      <c r="F7" s="65">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="65">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="J7" s="67">
+        <v>20000</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="67">
+        <v>25000</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="96">
+        <v>80</v>
+      </c>
+      <c r="D10" s="96">
+        <v>100</v>
+      </c>
+      <c r="E10" s="97">
+        <v>120</v>
+      </c>
+      <c r="F10" s="97">
+        <v>140</v>
+      </c>
+      <c r="G10" s="97">
+        <v>160</v>
+      </c>
+      <c r="H10" s="99">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6F7FBC-6754-469B-B55A-519A0802C278}">
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,13 +4425,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="58" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4188,27 +4481,27 @@
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="87" t="str">
+      <c r="C9" s="63" t="str">
         <f>VLOOKUP(C8,B3:D6,2,FALSE)</f>
         <v>Pedro</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="88" t="str">
+      <c r="C10" s="64" t="str">
         <f>VLOOKUP(C8,B3:D6,3,FALSE)</f>
         <v>Consultor</v>
       </c>
@@ -4218,170 +4511,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34453382-10D1-4AB8-BDFD-360A898D02DF}">
-  <dimension ref="B2:K9"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE95ADA-3B15-4CBE-8C85-9380892CE496}">
+  <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D4" s="90">
-        <v>30000</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f>IF(D4&lt;=J$4,K$4,IF(D4&lt;=J$5,K$5,IF(D4&lt;=J$6,K$6,IF(D4&lt;=J$7,K$7,IF(D4&lt;=J$8,K$8,K$9)))))</f>
-        <v>F</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="J4" s="92">
-        <v>5000</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2300</v>
-      </c>
-      <c r="D5" s="90">
-        <v>13450</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f>IF(D5&lt;=J$4,K$4,IF(D5&lt;=J$5,K$5,IF(D5&lt;=J$6,K$6,IF(D5&lt;=J$7,K$7,IF(D5&lt;=J$8,K$8,K$9)))))</f>
-        <v>C</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="J5" s="92">
-        <v>10000</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D6" s="90">
-        <v>22360</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f>IF(D6&lt;=J$4,K$4,IF(D6&lt;=J$5,K$5,IF(D6&lt;=J$6,K$6,IF(D6&lt;=J$7,K$7,IF(D6&lt;=J$8,K$8,K$9)))))</f>
-        <v>E</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="J6" s="92">
-        <v>15000</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>109</v>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D7" s="90">
-        <v>15000</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f>IF(D7&lt;=J$4,K$4,IF(D7&lt;=J$5,K$5,IF(D7&lt;=J$6,K$6,IF(D7&lt;=J$7,K$7,IF(D7&lt;=J$8,K$8,K$9)))))</f>
-        <v>C</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="J7" s="92">
-        <v>20000</v>
-      </c>
-      <c r="K7" s="87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="92">
-        <v>25000</v>
-      </c>
-      <c r="K8" s="87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="93" t="s">
-        <v>124</v>
+        <f>HLOOKUP(C6,C2:I3,2,FALSE)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4405,17 +4614,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -4639,16 +4848,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -4873,43 +5082,43 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="77">
         <f ca="1">TODAY()</f>
-        <v>45069</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
+        <v>45070</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="81">
         <v>0.15</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
@@ -5189,16 +5398,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -5578,12 +5787,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
@@ -5634,7 +5843,7 @@
       </c>
       <c r="I6" s="6">
         <f ca="1">TODAY()-H6</f>
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J6" t="str">
         <f>IF(E6&lt;10,"Comprar","OK")</f>
@@ -5660,7 +5869,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I10" ca="1" si="1">TODAY()-H7</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J10" si="2">IF(E7&lt;10,"Comprar","OK")</f>
@@ -5686,7 +5895,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
@@ -5712,7 +5921,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
@@ -5738,7 +5947,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
@@ -5778,15 +5987,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
@@ -5968,18 +6177,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="87" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="36" t="s">
@@ -6002,7 +6211,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="77"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="1">
         <v>10000</v>
       </c>
@@ -6024,15 +6233,15 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -6304,12 +6513,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="50" t="s">
